--- a/Asset/mb/xlsxs/race.xlsx
+++ b/Asset/mb/xlsxs/race.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Asset\mb\xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E18E085-3B87-4581-B317-907517C1A79F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B477E7A5-C644-4BC5-AA4E-30940F7A10A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="0" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@种族" sheetId="1" r:id="rId1"/>
@@ -26,36 +26,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
-  <si>
-    <t>level(等级)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铜钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>种族</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>money[][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>level[][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>模型ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>modelScale[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>race[!.$][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -92,67 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模型缩放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族介绍Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族名称Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill1[][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2[][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill3[][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>talent1[][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>talent2[][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预设技能1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预设技能2</t>
-  </si>
-  <si>
-    <t>预设技能3</t>
-  </si>
-  <si>
-    <t>预设天赋1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预设天赋2</t>
-  </si>
-  <si>
     <t>种族:datas</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -193,11 +112,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>raceName[][funcString]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>raceInfo[][funcString]</t>
+    <t>nameKey[][funcStr]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humanName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>humanInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfoKey[][funcStr]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -772,301 +703,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" style="5" customWidth="1"/>
-    <col min="4" max="8" width="10.6640625" style="1"/>
-    <col min="9" max="9" width="10.6640625" style="5"/>
-    <col min="10" max="16384" width="10.6640625" style="1"/>
+    <col min="3" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>8</v>
-      </c>
-      <c r="H5" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5">
-        <v>6</v>
-      </c>
-      <c r="H8" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5">
-        <v>8</v>
-      </c>
-      <c r="H9" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5">
-        <v>6</v>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1099,50 +886,50 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Asset/mb/xlsxs/race.xlsx
+++ b/Asset/mb/xlsxs/race.xlsx
@@ -162,7 +162,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +183,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -205,9 +213,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,13 +266,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -234,10 +283,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,32 +313,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,30 +326,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,6 +336,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,13 +360,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,79 +474,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,73 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,15 +527,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -555,9 +562,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,50 +619,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,31 +645,37 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,94 +684,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -768,7 +790,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -779,43 +801,45 @@
     <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="注释" xfId="11" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="标题" xfId="15" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="输出" xfId="22" builtinId="21"/>
-    <cellStyle name="计算" xfId="23" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="好" xfId="29" builtinId="26"/>
-    <cellStyle name="适中" xfId="30" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -1151,7 +1175,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="17.25"/>
@@ -1249,7 +1273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1262,8 +1286,35 @@
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1276,8 +1327,35 @@
       <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1290,8 +1368,35 @@
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1304,8 +1409,35 @@
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1318,8 +1450,35 @@
       <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -1332,8 +1491,35 @@
       <c r="D8" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1346,8 +1532,35 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>15</v>
+      </c>
+      <c r="H9" s="2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1359,6 +1572,33 @@
       </c>
       <c r="D10" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="2">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Asset/mb/xlsxs/race.xlsx
+++ b/Asset/mb/xlsxs/race.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Asset\mb\xlsxs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A0337C-ABA9-4DD8-B510-B33212BF61E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="18450" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="-10575" yWindow="7560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@种族" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>race[!.$][funcInt]</t>
   </si>
@@ -101,9 +107,6 @@
     <t>人类</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>矮人</t>
   </si>
   <si>
@@ -150,19 +153,74 @@
   </si>
   <si>
     <t>不死亡灵:8</t>
+  </si>
+  <si>
+    <t>strength[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intellect[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>physique[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Insight[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucky[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trading[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>theft[.][funcInt]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的介绍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人的介绍</t>
+  </si>
+  <si>
+    <t>侏儒的介绍</t>
+  </si>
+  <si>
+    <t>暗夜精灵的介绍</t>
+  </si>
+  <si>
+    <t>兽人的介绍</t>
+  </si>
+  <si>
+    <t>巨魔的介绍</t>
+  </si>
+  <si>
+    <t>牛头人的介绍</t>
+  </si>
+  <si>
+    <t>不死亡灵的介绍</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,352 +234,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -529,253 +262,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -789,62 +280,95 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -858,7 +382,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1166,58 +690,85 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.8888888888889" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.4444444444444" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.1111111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="10" width="8.77777777777778" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.6666666666667" style="2"/>
+    <col min="1" max="1" width="17.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="2" customWidth="1"/>
+    <col min="5" max="10" width="8.77734375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="E1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:18">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1273,7 +824,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -1281,42 +832,42 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2">
-        <v>10</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1324,8 +875,8 @@
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -1355,18 +906,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -1396,18 +947,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -1437,18 +988,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -1478,18 +1029,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -1519,18 +1070,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1560,18 +1111,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1601,74 +1152,97 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="5"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="17.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Asset/mb/xlsxs/race.xlsx
+++ b/Asset/mb/xlsxs/race.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\uRPG\Asset\mb\xlsxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A0337C-ABA9-4DD8-B510-B33212BF61E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7745994F-451F-4629-9D10-BA8835E927F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-10575" yWindow="7560" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@种族" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>race[!.$][funcInt]</t>
   </si>
   <si>
-    <t>modelID[][funcInt]</t>
-  </si>
-  <si>
     <t>nameKey[][funcStr]</t>
   </si>
   <si>
@@ -214,6 +211,34 @@
   </si>
   <si>
     <t>不死亡灵的介绍</t>
+  </si>
+  <si>
+    <t>modelID[][funcStr]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AYModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLModel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -699,7 +724,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -716,126 +741,126 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -867,16 +892,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <v>15</v>
@@ -908,16 +933,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
@@ -949,16 +974,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -990,16 +1015,16 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -1031,16 +1056,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -1072,16 +1097,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1113,16 +1138,16 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1198,46 +1223,46 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
